--- a/successRate.xlsx
+++ b/successRate.xlsx
@@ -26,7 +26,7 @@
     <t>Успеваемость</t>
   </si>
   <si>
-    <t>Maxim Evgenevic Petrov</t>
+    <t>Maxim Evgenevich Petrov</t>
   </si>
   <si>
     <t>Eng</t>
@@ -35,10 +35,10 @@
     <t>Dmitriy Ivanovich Kuznetsov</t>
   </si>
   <si>
-    <t>Math</t>
+    <t>History</t>
   </si>
   <si>
-    <t>History</t>
+    <t>Math</t>
   </si>
   <si>
     <t>Biology</t>
@@ -128,10 +128,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.700000047683716</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
@@ -145,7 +145,7 @@
         <v>3.0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.0</v>
+        <v>3.700000047683716</v>
       </c>
     </row>
     <row r="5">
